--- a/大学信息技术/项目3/实训2/2-个税计算.xlsx
+++ b/大学信息技术/项目3/实训2/2-个税计算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenglei\Desktop\实践项目3 电子表格处理\素材\实训2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A7B657-5820-435D-94ED-B1C36FC535DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84915699-4A0C-4D43-84AA-5AD84003D5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="6630" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -462,17 +462,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,35 +818,35 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.69921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -862,7 +862,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -919,14 +919,17 @@
       <c r="F4" s="5">
         <v>5000</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <f>SUM(E4:F4)</f>
+        <v>25000</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -952,7 +955,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1056,7 +1059,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1134,7 +1137,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1189,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1267,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1293,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1319,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1371,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1394,13 +1397,13 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -1410,7 +1413,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I24" s="17" t="s">
         <v>65</v>
       </c>

--- a/大学信息技术/项目3/实训2/2-个税计算.xlsx
+++ b/大学信息技术/项目3/实训2/2-个税计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84915699-4A0C-4D43-84AA-5AD84003D5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D29DE-0AA5-4BCA-9026-EE0A75F3FA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="6630" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="3480" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <definedName name="员工编号">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -306,7 +314,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -407,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,27 +432,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -473,6 +470,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,34 +820,37 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -863,40 +869,40 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -907,27 +913,42 @@
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="18">
         <v>20000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="18">
         <v>5000</v>
       </c>
-      <c r="G4" s="5">
-        <f>SUM(E4:F4)</f>
-        <v>25000</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="G4" s="18">
+        <f>SUM(E4:F4)*0.85</f>
+        <v>21250</v>
+      </c>
+      <c r="H4" s="18">
+        <f>SUM(E4:G4)</f>
+        <v>46250</v>
+      </c>
+      <c r="I4" s="18">
+        <f>H4*0.18</f>
+        <v>8325</v>
+      </c>
+      <c r="J4" s="18">
+        <f>H4-I4-5000</f>
+        <v>32925</v>
+      </c>
+      <c r="K4" s="18">
+        <f>IF(J4&gt;=25000,J4*0.25-2660,IF(J4&gt;=12000,J4*0.2-1410,IF(J4&gt;=3000,J4*0.1-210,J4*0.03-0)))</f>
+        <v>5571.25</v>
+      </c>
+      <c r="L4" s="18">
+        <f>H4-I4-K4</f>
+        <v>32353.75</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
@@ -936,24 +957,42 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
         <v>15000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="18">
         <v>4000</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="G5" s="18">
+        <f t="shared" ref="G5:G22" si="0">SUM(E5:F5)*0.85</f>
+        <v>16150</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H22" si="1">SUM(E5:G5)</f>
+        <v>35150</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I22" si="2">H5*0.18</f>
+        <v>6327</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:J22" si="3">H5-I5-5000</f>
+        <v>23823</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K22" si="4">IF(J5&gt;=25000,J5*0.25-2660,IF(J5&gt;=12000,J5*0.2-1410,IF(J5&gt;=3000,J5*0.1-210,J5*0.03-0)))</f>
+        <v>3354.6000000000004</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5:L22" si="5">H5-I5-K5</f>
+        <v>25468.400000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -962,24 +1001,42 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="18">
         <v>6500</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="18">
         <v>2000</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>7225</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>15725</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="2"/>
+        <v>2830.5</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="3"/>
+        <v>7894.5</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="4"/>
+        <v>579.45000000000005</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="5"/>
+        <v>12315.05</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
@@ -988,24 +1045,42 @@
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
         <v>8500</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="18">
         <v>2500</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>9350</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="1"/>
+        <v>20350</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="2"/>
+        <v>3663</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="3"/>
+        <v>11687</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="4"/>
+        <v>958.7</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="5"/>
+        <v>15728.3</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -1014,24 +1089,42 @@
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="18">
         <v>6000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="18">
         <v>2000</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="1"/>
+        <v>14800</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="2"/>
+        <v>2664</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="3"/>
+        <v>7136</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="4"/>
+        <v>503.6</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="5"/>
+        <v>11632.4</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1046,18 +1139,36 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="18">
         <v>12500</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="18">
         <v>4000</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>14025</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="1"/>
+        <v>30525</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="2"/>
+        <v>5494.5</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="3"/>
+        <v>20030.5</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="4"/>
+        <v>2596.1000000000004</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="5"/>
+        <v>22434.400000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -1066,24 +1177,42 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="18">
         <v>5500</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="18">
         <v>2000</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>6375</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>13875</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="2"/>
+        <v>2497.5</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="3"/>
+        <v>6377.5</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="4"/>
+        <v>427.75</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="5"/>
+        <v>10949.75</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -1092,24 +1221,42 @@
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="18">
         <v>8500</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="18">
         <v>3000</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>9775</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>21275</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="2"/>
+        <v>3829.5</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="3"/>
+        <v>12445.5</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="4"/>
+        <v>1079.1000000000004</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="5"/>
+        <v>16366.4</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -1118,24 +1265,42 @@
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="18">
         <v>8000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="18">
         <v>2000</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
+        <v>18500</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="2"/>
+        <v>3330</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="3"/>
+        <v>10170</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="4"/>
+        <v>807</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="5"/>
+        <v>14363</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -1144,24 +1309,42 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="18">
         <v>4500</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="18">
         <v>1500</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>5100</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
+        <v>11100</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="3"/>
+        <v>4102</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="4"/>
+        <v>200.20000000000005</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="5"/>
+        <v>8901.7999999999993</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -1170,24 +1353,42 @@
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="18">
         <v>11000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="18">
         <v>4000</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>12750</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>27750</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="2"/>
+        <v>4995</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="3"/>
+        <v>17755</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="4"/>
+        <v>2141</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="5"/>
+        <v>20614</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -1196,24 +1397,42 @@
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="18">
         <v>5000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="18">
         <v>1800</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>5780</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="1"/>
+        <v>12580</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="2"/>
+        <v>2264.4</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="3"/>
+        <v>5315.6</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="4"/>
+        <v>321.56000000000006</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="5"/>
+        <v>9994.0400000000009</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -1222,24 +1441,42 @@
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="18">
         <v>5000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="18">
         <v>2000</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>5950</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>12950</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="2"/>
+        <v>2331</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="3"/>
+        <v>5619</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="4"/>
+        <v>351.9</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="5"/>
+        <v>10267.1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -1248,24 +1485,42 @@
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="18">
         <v>10500</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="18">
         <v>3000</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>11475</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="1"/>
+        <v>24975</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="2"/>
+        <v>4495.5</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="3"/>
+        <v>15479.5</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="4"/>
+        <v>1685.9</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="5"/>
+        <v>18793.599999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -1274,24 +1529,42 @@
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="18">
         <v>7500</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="18">
         <v>2000</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>8075</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>17575</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
+        <v>3163.5</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="3"/>
+        <v>9411.5</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
+        <v>731.15000000000009</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="5"/>
+        <v>13680.35</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -1300,24 +1573,42 @@
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="18">
         <v>9600</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="18">
         <v>3000</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>10710</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>23310</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="2"/>
+        <v>4195.8</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="3"/>
+        <v>14114.2</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="4"/>
+        <v>1412.8400000000001</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="5"/>
+        <v>17701.36</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
@@ -1326,24 +1617,42 @@
       <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="18">
         <v>13500</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="18">
         <v>4000</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>14875</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>32375</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="2"/>
+        <v>5827.5</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="3"/>
+        <v>21547.5</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="4"/>
+        <v>2899.5</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="5"/>
+        <v>23648</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -1358,18 +1667,36 @@
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="18">
         <v>7200</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="18">
         <v>1800</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>7650</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>16650</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="2"/>
+        <v>2997</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="3"/>
+        <v>8653</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="4"/>
+        <v>655.30000000000007</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="5"/>
+        <v>12997.7</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
@@ -1378,52 +1705,94 @@
       <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="18">
         <v>5500</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="18">
         <v>1800</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>6205</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>13505</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="2"/>
+        <v>2430.9</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="3"/>
+        <v>6074.1</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="4"/>
+        <v>397.41000000000008</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="5"/>
+        <v>10676.69</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="19">
+        <f>SUM(E4:E22)</f>
+        <v>169800</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" ref="F23:L23" si="6">SUM(F4:F22)</f>
+        <v>51400</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="6"/>
+        <v>188020</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="6"/>
+        <v>409220</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="6"/>
+        <v>73659.600000000006</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="6"/>
+        <v>240560.40000000002</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="6"/>
+        <v>26674.310000000009</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" si="6"/>
+        <v>308886.09000000003</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>67</v>
       </c>
     </row>

--- a/大学信息技术/项目3/实训2/2-个税计算.xlsx
+++ b/大学信息技术/项目3/实训2/2-个税计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D29DE-0AA5-4BCA-9026-EE0A75F3FA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEE36D-D5CA-448B-AA34-F5356BFF7FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="3480" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -341,16 +341,43 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -398,16 +425,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -416,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,52 +467,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,37 +870,35 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -869,16 +917,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -893,74 +941,74 @@
       <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>20000</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>5000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <f>SUM(E4:F4)*0.85</f>
         <v>21250</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <f>SUM(E4:G4)</f>
         <v>46250</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <f>H4*0.18</f>
         <v>8325</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <f>H4-I4-5000</f>
         <v>32925</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="14">
         <f>IF(J4&gt;=25000,J4*0.25-2660,IF(J4&gt;=12000,J4*0.2-1410,IF(J4&gt;=3000,J4*0.1-210,J4*0.03-0)))</f>
         <v>5571.25</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f>H4-I4-K4</f>
         <v>32353.75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="18">
@@ -989,66 +1037,66 @@
         <f t="shared" ref="K5:K22" si="4">IF(J5&gt;=25000,J5*0.25-2660,IF(J5&gt;=12000,J5*0.2-1410,IF(J5&gt;=3000,J5*0.1-210,J5*0.03-0)))</f>
         <v>3354.6000000000004</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="19">
         <f t="shared" ref="L5:L22" si="5">H5-I5-K5</f>
         <v>25468.400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>6500</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>2000</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>7225</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>15725</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
         <v>2830.5</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
         <v>7894.5</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="14">
         <f t="shared" si="4"/>
         <v>579.45000000000005</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f t="shared" si="5"/>
         <v>12315.05</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="18">
@@ -1077,66 +1125,66 @@
         <f t="shared" si="4"/>
         <v>958.7</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="19">
         <f t="shared" si="5"/>
         <v>15728.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>6000</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <v>2000</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>14800</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="14">
         <f t="shared" si="2"/>
         <v>2664</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
         <v>7136</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="14">
         <f t="shared" si="4"/>
         <v>503.6</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f t="shared" si="5"/>
         <v>11632.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="18">
@@ -1165,66 +1213,66 @@
         <f t="shared" si="4"/>
         <v>2596.1000000000004</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="19">
         <f t="shared" si="5"/>
         <v>22434.400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>5500</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <v>2000</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>6375</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
         <v>13875</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <f t="shared" si="2"/>
         <v>2497.5</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
         <v>6377.5</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="14">
         <f t="shared" si="4"/>
         <v>427.75</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f t="shared" si="5"/>
         <v>10949.75</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="18">
@@ -1253,66 +1301,66 @@
         <f t="shared" si="4"/>
         <v>1079.1000000000004</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="19">
         <f t="shared" si="5"/>
         <v>16366.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>8000</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <v>2000</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>18500</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <f t="shared" si="2"/>
         <v>3330</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
         <v>10170</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <f t="shared" si="4"/>
         <v>807</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="5"/>
         <v>14363</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="18">
@@ -1341,66 +1389,66 @@
         <f t="shared" si="4"/>
         <v>200.20000000000005</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="19">
         <f t="shared" si="5"/>
         <v>8901.7999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>11000</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <v>4000</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="14">
         <f t="shared" si="1"/>
         <v>27750</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
         <v>4995</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>17755</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="14">
         <f t="shared" si="4"/>
         <v>2141</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f t="shared" si="5"/>
         <v>20614</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="18">
@@ -1429,66 +1477,66 @@
         <f t="shared" si="4"/>
         <v>321.56000000000006</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="19">
         <f t="shared" si="5"/>
         <v>9994.0400000000009</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>5000</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <v>2000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>5950</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
         <v>12950</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <f t="shared" si="2"/>
         <v>2331</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
         <v>5619</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="14">
         <f t="shared" si="4"/>
         <v>351.9</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f t="shared" si="5"/>
         <v>10267.1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="18">
@@ -1517,66 +1565,66 @@
         <f t="shared" si="4"/>
         <v>1685.9</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="19">
         <f t="shared" si="5"/>
         <v>18793.599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>7500</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <v>2000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>8075</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <f t="shared" si="1"/>
         <v>17575</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <f t="shared" si="2"/>
         <v>3163.5</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="14">
         <f t="shared" si="3"/>
         <v>9411.5</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="14">
         <f t="shared" si="4"/>
         <v>731.15000000000009</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f t="shared" si="5"/>
         <v>13680.35</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="18">
@@ -1605,66 +1653,66 @@
         <f t="shared" si="4"/>
         <v>1412.8400000000001</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="19">
         <f t="shared" si="5"/>
         <v>17701.36</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <v>13500</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <v>4000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>14875</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="14">
         <f t="shared" si="1"/>
         <v>32375</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="14">
         <f t="shared" si="2"/>
         <v>5827.5</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="14">
         <f t="shared" si="3"/>
         <v>21547.5</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="14">
         <f t="shared" si="4"/>
         <v>2899.5</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <f t="shared" si="5"/>
         <v>23648</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="18">
@@ -1693,106 +1741,106 @@
         <f t="shared" si="4"/>
         <v>655.30000000000007</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="19">
         <f t="shared" si="5"/>
         <v>12997.7</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="14">
         <v>5500</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="14">
         <v>1800</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>6205</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14">
         <f t="shared" si="1"/>
         <v>13505</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="14">
         <f t="shared" si="2"/>
         <v>2430.9</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <f t="shared" si="3"/>
         <v>6074.1</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="14">
         <f t="shared" si="4"/>
         <v>397.41000000000008</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="15">
         <f t="shared" si="5"/>
         <v>10676.69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22">
         <f>SUM(E4:E22)</f>
         <v>169800</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="22">
         <f t="shared" ref="F23:L23" si="6">SUM(F4:F22)</f>
         <v>51400</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>188020</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="22">
         <f t="shared" si="6"/>
         <v>409220</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="22">
         <f t="shared" si="6"/>
         <v>73659.600000000006</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="22">
         <f t="shared" si="6"/>
         <v>240560.40000000002</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="22">
         <f t="shared" si="6"/>
         <v>26674.310000000009</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="23">
         <f t="shared" si="6"/>
         <v>308886.09000000003</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1804,8 +1852,41 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L4:L22">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0FAAEF8-FC20-4422-BAAE-40FAD94A5336}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0FAAEF8-FC20-4422-BAAE-40FAD94A5336}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L4:L22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/大学信息技术/项目3/实训2/2-个税计算.xlsx
+++ b/大学信息技术/项目3/实训2/2-个税计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEE36D-D5CA-448B-AA34-F5356BFF7FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506C318-DC52-47A7-81AF-D18FBC120403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,53 +479,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +871,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -885,20 +885,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -917,915 +917,915 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>20000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>5000</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f>SUM(E4:F4)*0.85</f>
         <v>21250</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f>SUM(E4:G4)</f>
         <v>46250</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f>H4*0.18</f>
         <v>8325</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f>H4-I4-5000</f>
         <v>32925</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>IF(J4&gt;=25000,J4*0.25-2660,IF(J4&gt;=12000,J4*0.2-1410,IF(J4&gt;=3000,J4*0.1-210,J4*0.03-0)))</f>
         <v>5571.25</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <f>H4-I4-K4</f>
         <v>32353.75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>15000</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>4000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G22" si="0">SUM(E5:F5)*0.85</f>
         <v>16150</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f t="shared" ref="H5:H22" si="1">SUM(E5:G5)</f>
         <v>35150</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f t="shared" ref="I5:I22" si="2">H5*0.18</f>
         <v>6327</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <f t="shared" ref="J5:J22" si="3">H5-I5-5000</f>
         <v>23823</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f t="shared" ref="K5:K22" si="4">IF(J5&gt;=25000,J5*0.25-2660,IF(J5&gt;=12000,J5*0.2-1410,IF(J5&gt;=3000,J5*0.1-210,J5*0.03-0)))</f>
         <v>3354.6000000000004</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <f t="shared" ref="L5:L22" si="5">H5-I5-K5</f>
         <v>25468.400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>6500</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>2000</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>7225</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="1"/>
         <v>15725</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f t="shared" si="2"/>
         <v>2830.5</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f t="shared" si="3"/>
         <v>7894.5</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f t="shared" si="4"/>
         <v>579.45000000000005</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="5"/>
         <v>12315.05</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>8500</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>2500</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>20350</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f t="shared" si="2"/>
         <v>3663</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f t="shared" si="3"/>
         <v>11687</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f t="shared" si="4"/>
         <v>958.7</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f t="shared" si="5"/>
         <v>15728.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>6000</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>2000</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>14800</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>2664</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f t="shared" si="3"/>
         <v>7136</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f t="shared" si="4"/>
         <v>503.6</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f t="shared" si="5"/>
         <v>11632.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>12500</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>4000</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>14025</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>30525</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f t="shared" si="2"/>
         <v>5494.5</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
         <v>20030.5</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <f t="shared" si="4"/>
         <v>2596.1000000000004</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <f t="shared" si="5"/>
         <v>22434.400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>5500</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>2000</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>6375</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>13875</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
         <v>2497.5</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f t="shared" si="3"/>
         <v>6377.5</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f t="shared" si="4"/>
         <v>427.75</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <f t="shared" si="5"/>
         <v>10949.75</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>8500</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>3000</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>9775</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>21275</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f t="shared" si="2"/>
         <v>3829.5</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f t="shared" si="3"/>
         <v>12445.5</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <f t="shared" si="4"/>
         <v>1079.1000000000004</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <f t="shared" si="5"/>
         <v>16366.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>8000</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>2000</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>18500</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="2"/>
         <v>3330</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="3"/>
         <v>10170</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="4"/>
         <v>807</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <f t="shared" si="5"/>
         <v>14363</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>4500</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>1500</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>5100</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>11100</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
         <v>4102</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f t="shared" si="4"/>
         <v>200.20000000000005</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <f t="shared" si="5"/>
         <v>8901.7999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>11000</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>4000</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>27750</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <f t="shared" si="2"/>
         <v>4995</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <f t="shared" si="3"/>
         <v>17755</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f t="shared" si="4"/>
         <v>2141</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f t="shared" si="5"/>
         <v>20614</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>5000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>1800</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>5780</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f t="shared" si="1"/>
         <v>12580</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f t="shared" si="2"/>
         <v>2264.4</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <f t="shared" si="3"/>
         <v>5315.6</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="17">
         <f t="shared" si="4"/>
         <v>321.56000000000006</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <f t="shared" si="5"/>
         <v>9994.0400000000009</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>5000</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>2000</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <f t="shared" si="0"/>
         <v>5950</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>12950</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="2"/>
         <v>2331</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <f t="shared" si="3"/>
         <v>5619</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="4"/>
         <v>351.9</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <f t="shared" si="5"/>
         <v>10267.1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>10500</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>3000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>11475</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f t="shared" si="1"/>
         <v>24975</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <f t="shared" si="2"/>
         <v>4495.5</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <f t="shared" si="3"/>
         <v>15479.5</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="17">
         <f t="shared" si="4"/>
         <v>1685.9</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f t="shared" si="5"/>
         <v>18793.599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>7500</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>2000</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <f t="shared" si="0"/>
         <v>8075</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
         <v>17575</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>3163.5</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <f t="shared" si="3"/>
         <v>9411.5</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f t="shared" si="4"/>
         <v>731.15000000000009</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <f t="shared" si="5"/>
         <v>13680.35</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>9600</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>3000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>10710</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f t="shared" si="1"/>
         <v>23310</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <f t="shared" si="2"/>
         <v>4195.8</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <f t="shared" si="3"/>
         <v>14114.2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <f t="shared" si="4"/>
         <v>1412.8400000000001</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <f t="shared" si="5"/>
         <v>17701.36</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>13500</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>4000</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f t="shared" si="0"/>
         <v>14875</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f t="shared" si="1"/>
         <v>32375</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
         <v>5827.5</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <f t="shared" si="3"/>
         <v>21547.5</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
         <v>2899.5</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <f t="shared" si="5"/>
         <v>23648</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>7200</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>1800</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>7650</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f t="shared" si="1"/>
         <v>16650</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <f t="shared" si="2"/>
         <v>2997</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <f t="shared" si="3"/>
         <v>8653</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <f t="shared" si="4"/>
         <v>655.30000000000007</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <f t="shared" si="5"/>
         <v>12997.7</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>5500</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>1800</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <f t="shared" si="0"/>
         <v>6205</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
         <v>13505</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>2430.9</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
         <v>6074.1</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>397.41000000000008</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <f t="shared" si="5"/>
         <v>10676.69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21">
         <f>SUM(E4:E22)</f>
         <v>169800</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <f t="shared" ref="F23:L23" si="6">SUM(F4:F22)</f>
         <v>51400</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <f t="shared" si="6"/>
         <v>188020</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <f t="shared" si="6"/>
         <v>409220</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <f t="shared" si="6"/>
         <v>73659.600000000006</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <f t="shared" si="6"/>
         <v>240560.40000000002</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <f t="shared" si="6"/>
         <v>26674.310000000009</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <f t="shared" si="6"/>
         <v>308886.09000000003</v>
       </c>
@@ -1857,7 +1857,7 @@
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FF008AEF"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -1877,7 +1877,7 @@
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
+              <x14:borderColor rgb="FF008AEF"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
